--- a/Data/Models Comparison FortiNet (Tables).xlsx
+++ b/Data/Models Comparison FortiNet (Tables).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/carlosenrique_liendogrillo_telefonica_com/Documents/Documentos/1 - Technical Documentation/FortiNet/FortiGate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WU_WUIFVA02\Downloads\fgdt-main\fgdt-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D4ADE3CB-2890-42C1-BDA1-0F463751DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33B5145-E7AA-46ED-A6CF-746C96B6C863}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7ECEF3-CAF7-49CE-9F50-1955C0965383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89E4613D-0378-4C87-A089-EB04C3186047}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
   <si>
     <t>FG/FWF-30G</t>
   </si>
@@ -178,8 +178,128 @@
     <t>Threat Protection Throughput (Gbps - Ent. Mix)</t>
   </si>
   <si>
+    <t>SSL VPN Throughput (Gbps)</t>
+  </si>
+  <si>
+    <t>SSL Inspection Throughput (IPS, avg, HTTPS - Gbps)</t>
+  </si>
+  <si>
+    <t>16/8</t>
+  </si>
+  <si>
+    <t>64/32</t>
+  </si>
+  <si>
+    <t>64 GB (51G)</t>
+  </si>
+  <si>
+    <t>128 GB (71F)</t>
+  </si>
+  <si>
+    <t>WiFi, 3G, 4G</t>
+  </si>
+  <si>
+    <t>WiFi, Storage</t>
+  </si>
+  <si>
+    <t>WiFi, DSL, SEP, POE, 5G</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>FGlFWF-70G</t>
+  </si>
+  <si>
+    <t>FG/FWF-80F</t>
+  </si>
+  <si>
+    <t>FG-90G</t>
+  </si>
+  <si>
+    <t>FG-120G</t>
+  </si>
+  <si>
+    <t>128/64</t>
+  </si>
+  <si>
+    <t>64 GB (71C)</t>
+  </si>
+  <si>
+    <t>128 GB (81F)</t>
+  </si>
+  <si>
+    <t>120 GB (91C)</t>
+  </si>
+  <si>
+    <t>480 GB (101F)</t>
+  </si>
+  <si>
+    <t>480 GB (121C)</t>
+  </si>
+  <si>
+    <t>Single AC PS, dual inputs</t>
+  </si>
+  <si>
+    <t>Dual AC PS</t>
+  </si>
+  <si>
+    <t>WiFi, 3G4G, DSL, Bypass,</t>
+  </si>
+  <si>
+    <t>96/48</t>
+  </si>
+  <si>
+    <t>4x 10 GE SFP+, 18x GE RJ45, 8x GE SFP</t>
+  </si>
+  <si>
+    <t>8x GE RJ45, 2x Shared Port Pairs</t>
+  </si>
+  <si>
+    <t>8x GE RJ45, 2x 10 GE Shared Port Pairs</t>
+  </si>
+  <si>
+    <t>2x 10 GE SFP+, 18x GE RJ45, 4x Shared Port Pairs, 8x GE SFP</t>
+  </si>
+  <si>
+    <t>1 x RU</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>FT1518</t>
+  </si>
+  <si>
+    <t>FT512</t>
+  </si>
+  <si>
+    <t>FT64</t>
+  </si>
+  <si>
+    <t>IPsecVPNt</t>
+  </si>
+  <si>
+    <t>FG-1OOF</t>
+  </si>
+  <si>
+    <t>SSLVPNT</t>
+  </si>
+  <si>
+    <t>AppCtrl</t>
+  </si>
+  <si>
+    <t>Max FortiAPs (Total / Tunnel)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Firewall Latency ( </t>
+      <t>Firewall Latency (micro</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +309,7 @@
         <family val="1"/>
         <charset val="2"/>
       </rPr>
-      <t>m</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -199,125 +319,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s)</t>
+      <t>seconds)</t>
     </r>
-  </si>
-  <si>
-    <t>SSL VPN Throughput (Gbps)</t>
-  </si>
-  <si>
-    <t>SSL Inspection Throughput (IPS, avg, HTTPS - Gbps)</t>
-  </si>
-  <si>
-    <t>16/8</t>
-  </si>
-  <si>
-    <t>64/32</t>
-  </si>
-  <si>
-    <t>64 GB (51G)</t>
-  </si>
-  <si>
-    <t>128 GB (71F)</t>
-  </si>
-  <si>
-    <t>WiFi, 3G, 4G</t>
-  </si>
-  <si>
-    <t>WiFi, Storage</t>
-  </si>
-  <si>
-    <t>WiFi, DSL, SEP, POE, 5G</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>FGlFWF-70G</t>
-  </si>
-  <si>
-    <t>FG/FWF-80F</t>
-  </si>
-  <si>
-    <t>FG-90G</t>
-  </si>
-  <si>
-    <t>FG-120G</t>
-  </si>
-  <si>
-    <t>128/64</t>
-  </si>
-  <si>
-    <t>64 GB (71C)</t>
-  </si>
-  <si>
-    <t>128 GB (81F)</t>
-  </si>
-  <si>
-    <t>120 GB (91C)</t>
-  </si>
-  <si>
-    <t>480 GB (101F)</t>
-  </si>
-  <si>
-    <t>480 GB (121C)</t>
-  </si>
-  <si>
-    <t>Single AC PS, dual inputs</t>
-  </si>
-  <si>
-    <t>Dual AC PS</t>
-  </si>
-  <si>
-    <t>WiFi, 3G4G, DSL, Bypass,</t>
-  </si>
-  <si>
-    <t>96/48</t>
-  </si>
-  <si>
-    <t>4x 10 GE SFP+, 18x GE RJ45, 8x GE SFP</t>
-  </si>
-  <si>
-    <t>8x GE RJ45, 2x Shared Port Pairs</t>
-  </si>
-  <si>
-    <t>8x GE RJ45, 2x 10 GE Shared Port Pairs</t>
-  </si>
-  <si>
-    <t>2x 10 GE SFP+, 18x GE RJ45, 4x Shared Port Pairs, 8x GE SFP</t>
-  </si>
-  <si>
-    <t>1 x RU</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>FT1518</t>
-  </si>
-  <si>
-    <t>FT512</t>
-  </si>
-  <si>
-    <t>FT64</t>
-  </si>
-  <si>
-    <t>IPsecVPNt</t>
-  </si>
-  <si>
-    <t>FG-1OOF</t>
-  </si>
-  <si>
-    <t>SSLVPNT</t>
-  </si>
-  <si>
-    <t>AppCtrl</t>
-  </si>
-  <si>
-    <t>Max FortiAPs (Total / Tunnel)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,16 +798,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D1C7C-CB16-448E-9B17-A62272539C5B}">
-  <dimension ref="B2:O28"/>
+  <dimension ref="A2:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" customWidth="1"/>
@@ -820,9 +823,9 @@
     <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -840,25 +843,25 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -897,13 +900,13 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -942,10 +945,10 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -984,10 +987,10 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -1026,10 +1029,10 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1107,13 +1110,13 @@
         <v>FG/FWF-50G</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8">
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1152,9 +1155,12 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6">
         <v>2.87</v>
@@ -1191,7 +1197,10 @@
         <v>FG/FWF-50G</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1239,10 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1281,10 @@
         <v>FG-70F</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1323,10 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1365,10 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1386,9 +1407,9 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -1425,13 +1446,13 @@
         <v>FG-70F</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O16">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1464,9 +1485,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -1503,7 +1524,7 @@
         <v>FG/FWF-40F</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1542,52 +1563,52 @@
         <v>FG/FWF-60F</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" t="e" cm="1">
         <f t="array" ref="M20">INDEX(C$2:L$2, MATCH(MIN(IF(C20:L20&gt;=O20, C20:L20)), C20:L20, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1647,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1665,7 +1686,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1702,7 +1723,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1725,58 +1749,61 @@
         <v>17</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" t="e" cm="1">
         <f t="array" ref="M24">INDEX(C$2:L$2, MATCH(MIN(IF(C24:L24&gt;=O24, C24:L24)), C24:L24, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="M25" t="e" cm="1">
         <f t="array" ref="M25">INDEX(C$2:L$2, MATCH(MIN(IF(C25:L25&gt;=O25, C25:L25)), C25:L25, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1799,23 +1826,23 @@
         <v>22</v>
       </c>
       <c r="I26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
         <v>59</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>59</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" t="s">
-        <v>60</v>
       </c>
       <c r="M26" t="e" cm="1">
         <f t="array" ref="M26">INDEX(C$2:L$2, MATCH(MIN(IF(C26:L26&gt;=O26, C26:L26)), C26:L26, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1844,17 +1871,17 @@
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M27" t="e" cm="1">
         <f t="array" ref="M27">INDEX(C$2:L$2, MATCH(MIN(IF(C27:L27&gt;=O27, C27:L27)), C27:L27, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -1862,19 +1889,19 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
         <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>46</v>
       </c>
       <c r="H28" t="s">
         <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M28" t="e" cm="1">
         <f t="array" ref="M28">INDEX(C$2:L$2, MATCH(MIN(IF(C28:L28&gt;=O28, C28:L28)), C28:L28, 0))</f>

--- a/Data/Models Comparison FortiNet (Tables).xlsx
+++ b/Data/Models Comparison FortiNet (Tables).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WU_WUIFVA02\Downloads\fgdt-main\fgdt-main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/carlosenrique_liendogrillo_telefonica_com/Documents/Documentos/1 - Technical Documentation/FortiNet/FortiGate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7ECEF3-CAF7-49CE-9F50-1955C0965383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D4ADE3CB-2890-42C1-BDA1-0F463751DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33B5145-E7AA-46ED-A6CF-746C96B6C863}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89E4613D-0378-4C87-A089-EB04C3186047}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>FG/FWF-30G</t>
   </si>
@@ -178,128 +178,8 @@
     <t>Threat Protection Throughput (Gbps - Ent. Mix)</t>
   </si>
   <si>
-    <t>SSL VPN Throughput (Gbps)</t>
-  </si>
-  <si>
-    <t>SSL Inspection Throughput (IPS, avg, HTTPS - Gbps)</t>
-  </si>
-  <si>
-    <t>16/8</t>
-  </si>
-  <si>
-    <t>64/32</t>
-  </si>
-  <si>
-    <t>64 GB (51G)</t>
-  </si>
-  <si>
-    <t>128 GB (71F)</t>
-  </si>
-  <si>
-    <t>WiFi, 3G, 4G</t>
-  </si>
-  <si>
-    <t>WiFi, Storage</t>
-  </si>
-  <si>
-    <t>WiFi, DSL, SEP, POE, 5G</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>FGlFWF-70G</t>
-  </si>
-  <si>
-    <t>FG/FWF-80F</t>
-  </si>
-  <si>
-    <t>FG-90G</t>
-  </si>
-  <si>
-    <t>FG-120G</t>
-  </si>
-  <si>
-    <t>128/64</t>
-  </si>
-  <si>
-    <t>64 GB (71C)</t>
-  </si>
-  <si>
-    <t>128 GB (81F)</t>
-  </si>
-  <si>
-    <t>120 GB (91C)</t>
-  </si>
-  <si>
-    <t>480 GB (101F)</t>
-  </si>
-  <si>
-    <t>480 GB (121C)</t>
-  </si>
-  <si>
-    <t>Single AC PS, dual inputs</t>
-  </si>
-  <si>
-    <t>Dual AC PS</t>
-  </si>
-  <si>
-    <t>WiFi, 3G4G, DSL, Bypass,</t>
-  </si>
-  <si>
-    <t>96/48</t>
-  </si>
-  <si>
-    <t>4x 10 GE SFP+, 18x GE RJ45, 8x GE SFP</t>
-  </si>
-  <si>
-    <t>8x GE RJ45, 2x Shared Port Pairs</t>
-  </si>
-  <si>
-    <t>8x GE RJ45, 2x 10 GE Shared Port Pairs</t>
-  </si>
-  <si>
-    <t>2x 10 GE SFP+, 18x GE RJ45, 4x Shared Port Pairs, 8x GE SFP</t>
-  </si>
-  <si>
-    <t>1 x RU</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>FT1518</t>
-  </si>
-  <si>
-    <t>FT512</t>
-  </si>
-  <si>
-    <t>FT64</t>
-  </si>
-  <si>
-    <t>IPsecVPNt</t>
-  </si>
-  <si>
-    <t>FG-1OOF</t>
-  </si>
-  <si>
-    <t>SSLVPNT</t>
-  </si>
-  <si>
-    <t>AppCtrl</t>
-  </si>
-  <si>
-    <t>Max FortiAPs (Total / Tunnel)</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <r>
-      <t>Firewall Latency (micro</t>
+      <t xml:space="preserve">Firewall Latency ( </t>
     </r>
     <r>
       <rPr>
@@ -309,7 +189,7 @@
         <family val="1"/>
         <charset val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -319,8 +199,125 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>seconds)</t>
+      <t>s)</t>
     </r>
+  </si>
+  <si>
+    <t>SSL VPN Throughput (Gbps)</t>
+  </si>
+  <si>
+    <t>SSL Inspection Throughput (IPS, avg, HTTPS - Gbps)</t>
+  </si>
+  <si>
+    <t>16/8</t>
+  </si>
+  <si>
+    <t>64/32</t>
+  </si>
+  <si>
+    <t>64 GB (51G)</t>
+  </si>
+  <si>
+    <t>128 GB (71F)</t>
+  </si>
+  <si>
+    <t>WiFi, 3G, 4G</t>
+  </si>
+  <si>
+    <t>WiFi, Storage</t>
+  </si>
+  <si>
+    <t>WiFi, DSL, SEP, POE, 5G</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>FGlFWF-70G</t>
+  </si>
+  <si>
+    <t>FG/FWF-80F</t>
+  </si>
+  <si>
+    <t>FG-90G</t>
+  </si>
+  <si>
+    <t>FG-120G</t>
+  </si>
+  <si>
+    <t>128/64</t>
+  </si>
+  <si>
+    <t>64 GB (71C)</t>
+  </si>
+  <si>
+    <t>128 GB (81F)</t>
+  </si>
+  <si>
+    <t>120 GB (91C)</t>
+  </si>
+  <si>
+    <t>480 GB (101F)</t>
+  </si>
+  <si>
+    <t>480 GB (121C)</t>
+  </si>
+  <si>
+    <t>Single AC PS, dual inputs</t>
+  </si>
+  <si>
+    <t>Dual AC PS</t>
+  </si>
+  <si>
+    <t>WiFi, 3G4G, DSL, Bypass,</t>
+  </si>
+  <si>
+    <t>96/48</t>
+  </si>
+  <si>
+    <t>4x 10 GE SFP+, 18x GE RJ45, 8x GE SFP</t>
+  </si>
+  <si>
+    <t>8x GE RJ45, 2x Shared Port Pairs</t>
+  </si>
+  <si>
+    <t>8x GE RJ45, 2x 10 GE Shared Port Pairs</t>
+  </si>
+  <si>
+    <t>2x 10 GE SFP+, 18x GE RJ45, 4x Shared Port Pairs, 8x GE SFP</t>
+  </si>
+  <si>
+    <t>1 x RU</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>FT1518</t>
+  </si>
+  <si>
+    <t>FT512</t>
+  </si>
+  <si>
+    <t>FT64</t>
+  </si>
+  <si>
+    <t>IPsecVPNt</t>
+  </si>
+  <si>
+    <t>FG-1OOF</t>
+  </si>
+  <si>
+    <t>SSLVPNT</t>
+  </si>
+  <si>
+    <t>AppCtrl</t>
+  </si>
+  <si>
+    <t>Max FortiAPs (Total / Tunnel)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -798,16 +795,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D1C7C-CB16-448E-9B17-A62272539C5B}">
-  <dimension ref="A2:O28"/>
+  <dimension ref="B2:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" customWidth="1"/>
@@ -823,9 +820,9 @@
     <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -843,25 +840,25 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>31</v>
       </c>
@@ -900,13 +897,13 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -945,10 +942,10 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -987,10 +984,10 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>34</v>
       </c>
@@ -1029,10 +1026,10 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1071,7 +1068,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -1110,13 +1107,13 @@
         <v>FG/FWF-50G</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8">
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1155,12 +1152,9 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C10" s="6">
         <v>2.87</v>
@@ -1197,10 +1191,7 @@
         <v>FG/FWF-50G</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1239,10 +1230,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1281,10 +1269,7 @@
         <v>FG-70F</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1323,10 +1308,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1365,10 +1347,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>77</v>
-      </c>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1407,9 +1386,9 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -1446,13 +1425,13 @@
         <v>FG-70F</v>
       </c>
       <c r="N16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O16">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1485,9 +1464,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -1524,7 +1503,7 @@
         <v>FG/FWF-40F</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1563,52 +1542,52 @@
         <v>FG/FWF-60F</v>
       </c>
       <c r="N19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" t="e" cm="1">
         <f t="array" ref="M20">INDEX(C$2:L$2, MATCH(MIN(IF(C20:L20&gt;=O20, C20:L20)), C20:L20, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1626,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1665,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -1723,10 +1702,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>77</v>
-      </c>
+    <row r="24" spans="2:15" ht="58" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1749,61 +1725,58 @@
         <v>17</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="M24" t="e" cm="1">
         <f t="array" ref="M24">INDEX(C$2:L$2, MATCH(MIN(IF(C24:L24&gt;=O24, C24:L24)), C24:L24, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M25" t="e" cm="1">
         <f t="array" ref="M25">INDEX(C$2:L$2, MATCH(MIN(IF(C25:L25&gt;=O25, C25:L25)), C25:L25, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1826,23 +1799,23 @@
         <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M26" t="e" cm="1">
         <f t="array" ref="M26">INDEX(C$2:L$2, MATCH(MIN(IF(C26:L26&gt;=O26, C26:L26)), C26:L26, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1871,17 +1844,17 @@
         <v>24</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M27" t="e" cm="1">
         <f t="array" ref="M27">INDEX(C$2:L$2, MATCH(MIN(IF(C27:L27&gt;=O27, C27:L27)), C27:L27, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -1889,19 +1862,19 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
       </c>
       <c r="H28" t="s">
         <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M28" t="e" cm="1">
         <f t="array" ref="M28">INDEX(C$2:L$2, MATCH(MIN(IF(C28:L28&gt;=O28, C28:L28)), C28:L28, 0))</f>

--- a/Data/Models Comparison FortiNet (Tables).xlsx
+++ b/Data/Models Comparison FortiNet (Tables).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/carlosenrique_liendogrillo_telefonica_com/Documents/Documentos/1 - Technical Documentation/FortiNet/FortiGate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WU_WUIFVA02\Downloads\fgdt-main\fgdt-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D4ADE3CB-2890-42C1-BDA1-0F463751DDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33B5145-E7AA-46ED-A6CF-746C96B6C863}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504027B-A040-463A-96BF-5B42327183C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89E4613D-0378-4C87-A089-EB04C3186047}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{89E4613D-0378-4C87-A089-EB04C3186047}"/>
   </bookViews>
   <sheets>
     <sheet name="FG_Features_Matrix" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>FG/FWF-30G</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Power Supplies</t>
   </si>
   <si>
-    <t>Single AC ps</t>
-  </si>
-  <si>
     <t>Single AC PS</t>
   </si>
   <si>
@@ -178,8 +175,128 @@
     <t>Threat Protection Throughput (Gbps - Ent. Mix)</t>
   </si>
   <si>
+    <t>SSL VPN Throughput (Gbps)</t>
+  </si>
+  <si>
+    <t>SSL Inspection Throughput (IPS, avg, HTTPS - Gbps)</t>
+  </si>
+  <si>
+    <t>16/8</t>
+  </si>
+  <si>
+    <t>64/32</t>
+  </si>
+  <si>
+    <t>64 GB (51G)</t>
+  </si>
+  <si>
+    <t>128 GB (71F)</t>
+  </si>
+  <si>
+    <t>WiFi, 3G, 4G</t>
+  </si>
+  <si>
+    <t>WiFi, Storage</t>
+  </si>
+  <si>
+    <t>WiFi, DSL, SEP, POE, 5G</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>FGlFWF-70G</t>
+  </si>
+  <si>
+    <t>FG/FWF-80F</t>
+  </si>
+  <si>
+    <t>FG-90G</t>
+  </si>
+  <si>
+    <t>FG-120G</t>
+  </si>
+  <si>
+    <t>128/64</t>
+  </si>
+  <si>
+    <t>64 GB (71C)</t>
+  </si>
+  <si>
+    <t>128 GB (81F)</t>
+  </si>
+  <si>
+    <t>120 GB (91C)</t>
+  </si>
+  <si>
+    <t>480 GB (101F)</t>
+  </si>
+  <si>
+    <t>480 GB (121C)</t>
+  </si>
+  <si>
+    <t>Single AC PS, dual inputs</t>
+  </si>
+  <si>
+    <t>Dual AC PS</t>
+  </si>
+  <si>
+    <t>WiFi, 3G4G, DSL, Bypass,</t>
+  </si>
+  <si>
+    <t>96/48</t>
+  </si>
+  <si>
+    <t>4x 10 GE SFP+, 18x GE RJ45, 8x GE SFP</t>
+  </si>
+  <si>
+    <t>8x GE RJ45, 2x Shared Port Pairs</t>
+  </si>
+  <si>
+    <t>8x GE RJ45, 2x 10 GE Shared Port Pairs</t>
+  </si>
+  <si>
+    <t>2x 10 GE SFP+, 18x GE RJ45, 4x Shared Port Pairs, 8x GE SFP</t>
+  </si>
+  <si>
+    <t>1 x RU</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>FT1518</t>
+  </si>
+  <si>
+    <t>FT512</t>
+  </si>
+  <si>
+    <t>FT64</t>
+  </si>
+  <si>
+    <t>IPsecVPNt</t>
+  </si>
+  <si>
+    <t>FG-1OOF</t>
+  </si>
+  <si>
+    <t>SSLVPNT</t>
+  </si>
+  <si>
+    <t>AppCtrl</t>
+  </si>
+  <si>
+    <t>Max FortiAPs (Total / Tunnel)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Firewall Latency ( </t>
+      <t>Firewall Latency (micro</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +306,7 @@
         <family val="1"/>
         <charset val="2"/>
       </rPr>
-      <t>m</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -199,125 +316,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s)</t>
+      <t>seconds)</t>
     </r>
-  </si>
-  <si>
-    <t>SSL VPN Throughput (Gbps)</t>
-  </si>
-  <si>
-    <t>SSL Inspection Throughput (IPS, avg, HTTPS - Gbps)</t>
-  </si>
-  <si>
-    <t>16/8</t>
-  </si>
-  <si>
-    <t>64/32</t>
-  </si>
-  <si>
-    <t>64 GB (51G)</t>
-  </si>
-  <si>
-    <t>128 GB (71F)</t>
-  </si>
-  <si>
-    <t>WiFi, 3G, 4G</t>
-  </si>
-  <si>
-    <t>WiFi, Storage</t>
-  </si>
-  <si>
-    <t>WiFi, DSL, SEP, POE, 5G</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>FGlFWF-70G</t>
-  </si>
-  <si>
-    <t>FG/FWF-80F</t>
-  </si>
-  <si>
-    <t>FG-90G</t>
-  </si>
-  <si>
-    <t>FG-120G</t>
-  </si>
-  <si>
-    <t>128/64</t>
-  </si>
-  <si>
-    <t>64 GB (71C)</t>
-  </si>
-  <si>
-    <t>128 GB (81F)</t>
-  </si>
-  <si>
-    <t>120 GB (91C)</t>
-  </si>
-  <si>
-    <t>480 GB (101F)</t>
-  </si>
-  <si>
-    <t>480 GB (121C)</t>
-  </si>
-  <si>
-    <t>Single AC PS, dual inputs</t>
-  </si>
-  <si>
-    <t>Dual AC PS</t>
-  </si>
-  <si>
-    <t>WiFi, 3G4G, DSL, Bypass,</t>
-  </si>
-  <si>
-    <t>96/48</t>
-  </si>
-  <si>
-    <t>4x 10 GE SFP+, 18x GE RJ45, 8x GE SFP</t>
-  </si>
-  <si>
-    <t>8x GE RJ45, 2x Shared Port Pairs</t>
-  </si>
-  <si>
-    <t>8x GE RJ45, 2x 10 GE Shared Port Pairs</t>
-  </si>
-  <si>
-    <t>2x 10 GE SFP+, 18x GE RJ45, 4x Shared Port Pairs, 8x GE SFP</t>
-  </si>
-  <si>
-    <t>1 x RU</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>FT1518</t>
-  </si>
-  <si>
-    <t>FT512</t>
-  </si>
-  <si>
-    <t>FT64</t>
-  </si>
-  <si>
-    <t>IPsecVPNt</t>
-  </si>
-  <si>
-    <t>FG-1OOF</t>
-  </si>
-  <si>
-    <t>SSLVPNT</t>
-  </si>
-  <si>
-    <t>AppCtrl</t>
-  </si>
-  <si>
-    <t>Max FortiAPs (Total / Tunnel)</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -795,16 +795,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7D1C7C-CB16-448E-9B17-A62272539C5B}">
-  <dimension ref="B2:O28"/>
+  <dimension ref="A2:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="44.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" customWidth="1"/>
@@ -820,9 +820,9 @@
     <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -840,27 +840,27 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8">
         <v>4</v>
@@ -897,15 +897,15 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="10">
         <v>4</v>
@@ -942,12 +942,12 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7">
         <v>3.9</v>
@@ -984,12 +984,12 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
         <v>3.5</v>
@@ -1026,12 +1026,12 @@
         <v>FG/FWF-30G</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6">
         <v>0.8</v>
@@ -1068,9 +1068,9 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>0.56999999999999995</v>
@@ -1107,15 +1107,15 @@
         <v>FG/FWF-50G</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O8">
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>0.5</v>
@@ -1152,9 +1152,12 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6">
         <v>2.87</v>
@@ -1191,7 +1194,10 @@
         <v>FG/FWF-50G</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1236,10 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1278,10 @@
         <v>FG-70F</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1320,10 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1362,10 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -1386,9 +1404,9 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -1425,13 +1443,13 @@
         <v>FG-70F</v>
       </c>
       <c r="N16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O16">
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1464,9 +1482,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -1503,7 +1521,7 @@
         <v>FG/FWF-40F</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1542,52 +1560,52 @@
         <v>FG/FWF-60F</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M20" t="e" cm="1">
         <f t="array" ref="M20">INDEX(C$2:L$2, MATCH(MIN(IF(C20:L20&gt;=O20, C20:L20)), C20:L20, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1644,7 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -1665,55 +1683,58 @@
         <v>FG/FWF-30G</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23" t="e" cm="1">
         <f t="array" ref="M23">INDEX(C$2:L$2, MATCH(MIN(IF(C23:L23&gt;=O23, C23:L23)), C23:L23, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>17</v>
@@ -1725,58 +1746,61 @@
         <v>17</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M24" t="e" cm="1">
         <f t="array" ref="M24">INDEX(C$2:L$2, MATCH(MIN(IF(C24:L24&gt;=O24, C24:L24)), C24:L24, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="M25" t="e" cm="1">
         <f t="array" ref="M25">INDEX(C$2:L$2, MATCH(MIN(IF(C25:L25&gt;=O25, C25:L25)), C25:L25, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>20</v>
       </c>
@@ -1790,91 +1814,91 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M26" t="e" cm="1">
         <f t="array" ref="M26">INDEX(C$2:L$2, MATCH(MIN(IF(C26:L26&gt;=O26, C26:L26)), C26:L26, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M27" t="e" cm="1">
         <f t="array" ref="M27">INDEX(C$2:L$2, MATCH(MIN(IF(C27:L27&gt;=O27, C27:L27)), C27:L27, 0))</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M28" t="e" cm="1">
         <f t="array" ref="M28">INDEX(C$2:L$2, MATCH(MIN(IF(C28:L28&gt;=O28, C28:L28)), C28:L28, 0))</f>
